--- a/readme_files/bootloader_summary.xlsx
+++ b/readme_files/bootloader_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF518206-9FF4-437C-8C59-5C14729ECA62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AC6104-58D1-4559-A6CC-18938B5E1A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3045" yWindow="1050" windowWidth="21600" windowHeight="14175" activeTab="1" xr2:uid="{6C55A1A0-E8E8-4669-A1BD-2E037FD69E57}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="105">
   <si>
     <t>bootloader_platformio</t>
   </si>
@@ -333,9 +333,6 @@
     <t>notes</t>
   </si>
   <si>
-    <t>SPI_F407_based-on-fatfs-stm32-master</t>
-  </si>
-  <si>
     <t>has exFAT support</t>
   </si>
   <si>
@@ -343,6 +340,12 @@
   </si>
   <si>
     <t>SDIO_F746_STM32cube</t>
+  </si>
+  <si>
+    <t>SPI_F407ZG_based-on-fatfs-stm32-master</t>
+  </si>
+  <si>
+    <t>SDIO_F407VE_fatfs-stm32-master</t>
   </si>
 </sst>
 </file>
@@ -424,17 +427,19 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1352,407 +1357,408 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA31013B-D0F5-4B09-BDE8-13045777ACA7}">
-  <sheetPr codeName="Sheet2"/>
+  <sheetPr codeName="Sheet2">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.796875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.46484375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="20.1328125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="12.3984375" style="10" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" style="9" customWidth="1"/>
-    <col min="6" max="16384" width="9.06640625" style="9"/>
+    <col min="1" max="1" width="18.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.46484375" customWidth="1"/>
+    <col min="3" max="3" width="20.1328125" customWidth="1"/>
+    <col min="4" max="4" width="12.3984375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="10" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A2" s="9" t="s">
+      <c r="A2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A3" s="9" t="s">
+      <c r="A3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A4" s="9" t="s">
+      <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A5" s="9" t="s">
+      <c r="A5" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A6" s="9" t="s">
+      <c r="A6" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A7" s="9" t="s">
+      <c r="A7" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A8" s="9" t="s">
+      <c r="A8" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="10" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="14">
         <v>8004000</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A12" s="9" t="s">
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+    </row>
+    <row r="12" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="14">
+        <v>8004000</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="13">
+        <v>8008000</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D12" s="10">
+    </row>
+    <row r="14" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="13">
+        <v>8020000</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="2">
+        <v>8005800</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="14">
         <v>8004000</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A13" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" s="12">
+      <c r="E20" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="14">
         <v>8008000</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E21" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A14" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" s="12">
+      <c r="H21" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="2">
+        <v>8004000</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="9">
         <v>8020000</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E23" t="s">
         <v>60</v>
       </c>
-      <c r="H14" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A15" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A16" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="C17" s="10"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="C18" s="10"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D19" s="10">
-        <v>8005800</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A20" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" s="10">
-        <v>8004000</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A21" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D21" s="10">
-        <v>8008000</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A22" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" s="10">
-        <v>8004000</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A23" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D23" s="12">
-        <v>8020000</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>101</v>
+      <c r="H23" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="C24" s="12"/>
+      <c r="C24" s="9"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="C25" s="12"/>
+      <c r="C25" s="9"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="82" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>